--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,6 +571,25 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ghv</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,25 +571,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ghv</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
